--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>224.343506284836</v>
+        <v>0.9334765</v>
       </c>
       <c r="N2">
-        <v>224.343506284836</v>
+        <v>1.866953</v>
       </c>
       <c r="O2">
-        <v>0.517669086396301</v>
+        <v>0.002089345043310503</v>
       </c>
       <c r="P2">
-        <v>0.517669086396301</v>
+        <v>0.001394044983620425</v>
       </c>
       <c r="Q2">
-        <v>138.3115432607661</v>
+        <v>0.633186444715</v>
       </c>
       <c r="R2">
-        <v>138.3115432607661</v>
+        <v>2.53274577886</v>
       </c>
       <c r="S2">
-        <v>0.002244705593022783</v>
+        <v>9.204287642674128E-06</v>
       </c>
       <c r="T2">
-        <v>0.002244705593022783</v>
+        <v>4.104146798468296E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>209.02891671724</v>
+        <v>0.1084443333333333</v>
       </c>
       <c r="N3">
-        <v>209.02891671724</v>
+        <v>0.325333</v>
       </c>
       <c r="O3">
-        <v>0.482330913603699</v>
+        <v>0.0002427245145701171</v>
       </c>
       <c r="P3">
-        <v>0.482330913603699</v>
+        <v>0.0002429246138795051</v>
       </c>
       <c r="Q3">
-        <v>128.8698413252972</v>
+        <v>0.07355887574333332</v>
       </c>
       <c r="R3">
-        <v>128.8698413252972</v>
+        <v>0.44135325446</v>
       </c>
       <c r="S3">
-        <v>0.002091472965849768</v>
+        <v>1.06928544769797E-06</v>
       </c>
       <c r="T3">
-        <v>0.002091472965849768</v>
+        <v>7.151837193470248E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.343506284836</v>
+        <v>230.9694466666667</v>
       </c>
       <c r="N4">
-        <v>224.343506284836</v>
+        <v>692.9083400000001</v>
       </c>
       <c r="O4">
-        <v>0.517669086396301</v>
+        <v>0.5169652032473979</v>
       </c>
       <c r="P4">
-        <v>0.517669086396301</v>
+        <v>0.5173913834390882</v>
       </c>
       <c r="Q4">
-        <v>22743.85589995727</v>
+        <v>156.6688853684667</v>
       </c>
       <c r="R4">
-        <v>22743.85589995727</v>
+        <v>940.0133122108</v>
       </c>
       <c r="S4">
-        <v>0.369117857714051</v>
+        <v>0.002277410544121123</v>
       </c>
       <c r="T4">
-        <v>0.369117857714051</v>
+        <v>0.001523229318168685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>209.02891671724</v>
+        <v>212.9796143333333</v>
       </c>
       <c r="N5">
-        <v>209.02891671724</v>
+        <v>638.938843</v>
       </c>
       <c r="O5">
-        <v>0.482330913603699</v>
+        <v>0.4766996293249295</v>
       </c>
       <c r="P5">
-        <v>0.482330913603699</v>
+        <v>0.4770926150387227</v>
       </c>
       <c r="Q5">
-        <v>21191.26886920025</v>
+        <v>144.4662021984433</v>
       </c>
       <c r="R5">
-        <v>21191.26886920025</v>
+        <v>866.7972131906599</v>
       </c>
       <c r="S5">
-        <v>0.3439203889458494</v>
+        <v>0.002100026762698152</v>
       </c>
       <c r="T5">
-        <v>0.3439203889458494</v>
+        <v>0.001404587478589706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.3969551506456</v>
+        <v>0.67831</v>
       </c>
       <c r="H6">
-        <v>13.3969551506456</v>
+        <v>1.35662</v>
       </c>
       <c r="I6">
-        <v>0.09422547537874634</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J6">
-        <v>0.09422547537874634</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>224.343506284836</v>
+        <v>1.617929</v>
       </c>
       <c r="N6">
-        <v>224.343506284836</v>
+        <v>4.853787</v>
       </c>
       <c r="O6">
-        <v>0.517669086396301</v>
+        <v>0.003621314448278364</v>
       </c>
       <c r="P6">
-        <v>0.517669086396301</v>
+        <v>0.003624299818427155</v>
       </c>
       <c r="Q6">
-        <v>3005.519892036527</v>
+        <v>1.09745741999</v>
       </c>
       <c r="R6">
-        <v>3005.519892036527</v>
+        <v>6.584744519939999</v>
       </c>
       <c r="S6">
-        <v>0.04877761575457278</v>
+        <v>1.595314279622905E-05</v>
       </c>
       <c r="T6">
-        <v>0.04877761575457278</v>
+        <v>1.067014240663639E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.3969551506456</v>
+        <v>0.67831</v>
       </c>
       <c r="H7">
-        <v>13.3969551506456</v>
+        <v>1.35662</v>
       </c>
       <c r="I7">
-        <v>0.09422547537874634</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J7">
-        <v>0.09422547537874634</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>209.02891671724</v>
+        <v>0.170573</v>
       </c>
       <c r="N7">
-        <v>209.02891671724</v>
+        <v>0.341146</v>
       </c>
       <c r="O7">
-        <v>0.482330913603699</v>
+        <v>0.0003817834215136668</v>
       </c>
       <c r="P7">
-        <v>0.482330913603699</v>
+        <v>0.0002547321062620075</v>
       </c>
       <c r="Q7">
-        <v>2800.351022448899</v>
+        <v>0.11570137163</v>
       </c>
       <c r="R7">
-        <v>2800.351022448899</v>
+        <v>0.46280548652</v>
       </c>
       <c r="S7">
-        <v>0.04544785962417357</v>
+        <v>1.681888034753798E-06</v>
       </c>
       <c r="T7">
-        <v>0.04544785962417357</v>
+        <v>7.49945640683116E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>224.343506284836</v>
+        <v>0.9334765</v>
       </c>
       <c r="N8">
-        <v>224.343506284836</v>
+        <v>1.866953</v>
       </c>
       <c r="O8">
-        <v>0.517669086396301</v>
+        <v>0.002089345043310503</v>
       </c>
       <c r="P8">
-        <v>0.517669086396301</v>
+        <v>0.001394044983620425</v>
       </c>
       <c r="Q8">
-        <v>5649.798415502464</v>
+        <v>100.8993037476417</v>
       </c>
       <c r="R8">
-        <v>5649.798415502464</v>
+        <v>605.3958224858501</v>
       </c>
       <c r="S8">
-        <v>0.09169252112832933</v>
+        <v>0.001466718408756928</v>
       </c>
       <c r="T8">
-        <v>0.09169252112832933</v>
+        <v>0.0009810038367844903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>209.02891671724</v>
+        <v>0.1084443333333333</v>
       </c>
       <c r="N9">
-        <v>209.02891671724</v>
+        <v>0.325333</v>
       </c>
       <c r="O9">
-        <v>0.482330913603699</v>
+        <v>0.0002427245145701171</v>
       </c>
       <c r="P9">
-        <v>0.482330913603699</v>
+        <v>0.0002429246138795051</v>
       </c>
       <c r="Q9">
-        <v>5264.120464284124</v>
+        <v>11.72172810853889</v>
       </c>
       <c r="R9">
-        <v>5264.120464284124</v>
+        <v>105.49555297685</v>
       </c>
       <c r="S9">
-        <v>0.085433221045377</v>
+        <v>0.0001703923987645887</v>
       </c>
       <c r="T9">
-        <v>0.085433221045377</v>
+        <v>0.0001709485569441804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17927305390896</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H10">
-        <v>1.17927305390896</v>
+        <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.008294240210288602</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J10">
-        <v>0.008294240210288602</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>224.343506284836</v>
+        <v>230.9694466666667</v>
       </c>
       <c r="N10">
-        <v>224.343506284836</v>
+        <v>692.9083400000001</v>
       </c>
       <c r="O10">
-        <v>0.517669086396301</v>
+        <v>0.5169652032473979</v>
       </c>
       <c r="P10">
-        <v>0.517669086396301</v>
+        <v>0.5173913834390882</v>
       </c>
       <c r="Q10">
-        <v>264.5622517811625</v>
+        <v>24965.44514580145</v>
       </c>
       <c r="R10">
-        <v>264.5622517811625</v>
+        <v>224689.006312213</v>
       </c>
       <c r="S10">
-        <v>0.004293671752011565</v>
+        <v>0.3629091244250944</v>
       </c>
       <c r="T10">
-        <v>0.004293671752011565</v>
+        <v>0.364093654248378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17927305390896</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H11">
-        <v>1.17927305390896</v>
+        <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.008294240210288602</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J11">
-        <v>0.008294240210288602</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>209.02891671724</v>
+        <v>212.9796143333333</v>
       </c>
       <c r="N11">
-        <v>209.02891671724</v>
+        <v>638.938843</v>
       </c>
       <c r="O11">
-        <v>0.482330913603699</v>
+        <v>0.4766996293249295</v>
       </c>
       <c r="P11">
-        <v>0.482330913603699</v>
+        <v>0.4770926150387227</v>
       </c>
       <c r="Q11">
-        <v>246.5021689724213</v>
+        <v>23020.92746702737</v>
       </c>
       <c r="R11">
-        <v>246.5021689724213</v>
+        <v>207188.3472032463</v>
       </c>
       <c r="S11">
-        <v>0.004000568458277037</v>
+        <v>0.3346427264453373</v>
       </c>
       <c r="T11">
-        <v>0.004000568458277037</v>
+        <v>0.3357349951785841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1605 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.423712312194253</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H12">
-        <v>0.423712312194253</v>
+        <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.002980117018485899</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J12">
-        <v>0.002980117018485899</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>224.343506284836</v>
+        <v>1.617929</v>
       </c>
       <c r="N12">
-        <v>224.343506284836</v>
+        <v>4.853787</v>
       </c>
       <c r="O12">
-        <v>0.517669086396301</v>
+        <v>0.003621314448278364</v>
       </c>
       <c r="P12">
-        <v>0.517669086396301</v>
+        <v>0.003624299818427155</v>
       </c>
       <c r="Q12">
-        <v>95.05710577371379</v>
+        <v>174.8816489896833</v>
       </c>
       <c r="R12">
-        <v>95.05710577371379</v>
+        <v>1573.93484090715</v>
       </c>
       <c r="S12">
-        <v>0.001542714454313664</v>
+        <v>0.002542159602691324</v>
       </c>
       <c r="T12">
-        <v>0.001542714454313664</v>
+        <v>0.002550457172695124</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>108.0898166666667</v>
+      </c>
+      <c r="H13">
+        <v>324.26945</v>
+      </c>
+      <c r="I13">
+        <v>0.7019991329115071</v>
+      </c>
+      <c r="J13">
+        <v>0.7037103166045329</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.170573</v>
+      </c>
+      <c r="N13">
+        <v>0.341146</v>
+      </c>
+      <c r="O13">
+        <v>0.0003817834215136668</v>
+      </c>
+      <c r="P13">
+        <v>0.0002547321062620075</v>
+      </c>
+      <c r="Q13">
+        <v>18.43720429828333</v>
+      </c>
+      <c r="R13">
+        <v>110.6232257897</v>
+      </c>
+      <c r="S13">
+        <v>0.0002680116308625825</v>
+      </c>
+      <c r="T13">
+        <v>0.0001792576111469768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H14">
+        <v>52.749977</v>
+      </c>
+      <c r="I14">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J14">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.9334765</v>
+      </c>
+      <c r="N14">
+        <v>1.866953</v>
+      </c>
+      <c r="O14">
+        <v>0.002089345043310503</v>
+      </c>
+      <c r="P14">
+        <v>0.001394044983620425</v>
+      </c>
+      <c r="Q14">
+        <v>16.41362130168017</v>
+      </c>
+      <c r="R14">
+        <v>98.48172781008101</v>
+      </c>
+      <c r="S14">
+        <v>0.0002385959032755154</v>
+      </c>
+      <c r="T14">
+        <v>0.000159583117766085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H15">
+        <v>52.749977</v>
+      </c>
+      <c r="I15">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J15">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1084443333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.325333</v>
+      </c>
+      <c r="O15">
+        <v>0.0002427245145701171</v>
+      </c>
+      <c r="P15">
+        <v>0.0002429246138795051</v>
+      </c>
+      <c r="Q15">
+        <v>1.906812029704555</v>
+      </c>
+      <c r="R15">
+        <v>17.161308267341</v>
+      </c>
+      <c r="S15">
+        <v>2.77182914264877E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.780876350513041E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H16">
+        <v>52.749977</v>
+      </c>
+      <c r="I16">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J16">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>230.9694466666667</v>
+      </c>
+      <c r="N16">
+        <v>692.9083400000001</v>
+      </c>
+      <c r="O16">
+        <v>0.5169652032473979</v>
+      </c>
+      <c r="P16">
+        <v>0.5173913834390882</v>
+      </c>
+      <c r="Q16">
+        <v>4061.210999789798</v>
+      </c>
+      <c r="R16">
+        <v>36550.89899810818</v>
+      </c>
+      <c r="S16">
+        <v>0.05903561981097469</v>
+      </c>
+      <c r="T16">
+        <v>0.05922831116976296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="H13">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="I13">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="J13">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>209.02891671724</v>
-      </c>
-      <c r="N13">
-        <v>209.02891671724</v>
-      </c>
-      <c r="O13">
-        <v>0.482330913603699</v>
-      </c>
-      <c r="P13">
-        <v>0.482330913603699</v>
-      </c>
-      <c r="Q13">
-        <v>88.56812561772171</v>
-      </c>
-      <c r="R13">
-        <v>88.56812561772171</v>
-      </c>
-      <c r="S13">
-        <v>0.001437402564172235</v>
-      </c>
-      <c r="T13">
-        <v>0.001437402564172235</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H17">
+        <v>52.749977</v>
+      </c>
+      <c r="I17">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J17">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>212.9796143333333</v>
+      </c>
+      <c r="N17">
+        <v>638.938843</v>
+      </c>
+      <c r="O17">
+        <v>0.4766996293249295</v>
+      </c>
+      <c r="P17">
+        <v>0.4770926150387227</v>
+      </c>
+      <c r="Q17">
+        <v>3744.889919184068</v>
+      </c>
+      <c r="R17">
+        <v>33704.00927265661</v>
+      </c>
+      <c r="S17">
+        <v>0.05443743196656002</v>
+      </c>
+      <c r="T17">
+        <v>0.05461511491065661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H18">
+        <v>52.749977</v>
+      </c>
+      <c r="I18">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J18">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.617929</v>
+      </c>
+      <c r="N18">
+        <v>4.853787</v>
+      </c>
+      <c r="O18">
+        <v>0.003621314448278364</v>
+      </c>
+      <c r="P18">
+        <v>0.003624299818427155</v>
+      </c>
+      <c r="Q18">
+        <v>28.44857251254433</v>
+      </c>
+      <c r="R18">
+        <v>256.037152612899</v>
+      </c>
+      <c r="S18">
+        <v>0.00041354145625589</v>
+      </c>
+      <c r="T18">
+        <v>0.0004148912492347116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H19">
+        <v>52.749977</v>
+      </c>
+      <c r="I19">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J19">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.170573</v>
+      </c>
+      <c r="N19">
+        <v>0.341146</v>
+      </c>
+      <c r="O19">
+        <v>0.0003817834215136668</v>
+      </c>
+      <c r="P19">
+        <v>0.0002547321062620075</v>
+      </c>
+      <c r="Q19">
+        <v>2.999240608940334</v>
+      </c>
+      <c r="R19">
+        <v>17.995443653642</v>
+      </c>
+      <c r="S19">
+        <v>4.359833269441114E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.916042465634049E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H20">
+        <v>77.988344</v>
+      </c>
+      <c r="I20">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J20">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.9334765</v>
+      </c>
+      <c r="N20">
+        <v>1.866953</v>
+      </c>
+      <c r="O20">
+        <v>0.002089345043310503</v>
+      </c>
+      <c r="P20">
+        <v>0.001394044983620425</v>
+      </c>
+      <c r="Q20">
+        <v>24.26676213263867</v>
+      </c>
+      <c r="R20">
+        <v>145.600572795832</v>
+      </c>
+      <c r="S20">
+        <v>0.000352752748719523</v>
+      </c>
+      <c r="T20">
+        <v>0.0002359360855253823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H21">
+        <v>77.988344</v>
+      </c>
+      <c r="I21">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J21">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1084443333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.325333</v>
+      </c>
+      <c r="O21">
+        <v>0.0002427245145701171</v>
+      </c>
+      <c r="P21">
+        <v>0.0002429246138795051</v>
+      </c>
+      <c r="Q21">
+        <v>2.819131324283555</v>
+      </c>
+      <c r="R21">
+        <v>25.372181918552</v>
+      </c>
+      <c r="S21">
+        <v>4.098018178967497E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.111394047532487E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H22">
+        <v>77.988344</v>
+      </c>
+      <c r="I22">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J22">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>230.9694466666667</v>
+      </c>
+      <c r="N22">
+        <v>692.9083400000001</v>
+      </c>
+      <c r="O22">
+        <v>0.5169652032473979</v>
+      </c>
+      <c r="P22">
+        <v>0.5173913834390882</v>
+      </c>
+      <c r="Q22">
+        <v>6004.308220043219</v>
+      </c>
+      <c r="R22">
+        <v>54038.77398038896</v>
+      </c>
+      <c r="S22">
+        <v>0.08728136935626547</v>
+      </c>
+      <c r="T22">
+        <v>0.08756625440891691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H23">
+        <v>77.988344</v>
+      </c>
+      <c r="I23">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J23">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>212.9796143333333</v>
+      </c>
+      <c r="N23">
+        <v>638.938843</v>
+      </c>
+      <c r="O23">
+        <v>0.4766996293249295</v>
+      </c>
+      <c r="P23">
+        <v>0.4770926150387227</v>
+      </c>
+      <c r="Q23">
+        <v>5536.642475871777</v>
+      </c>
+      <c r="R23">
+        <v>49829.78228284599</v>
+      </c>
+      <c r="S23">
+        <v>0.08048316629000007</v>
+      </c>
+      <c r="T23">
+        <v>0.08074586211197432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H24">
+        <v>77.988344</v>
+      </c>
+      <c r="I24">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J24">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>1.617929</v>
+      </c>
+      <c r="N24">
+        <v>4.853787</v>
+      </c>
+      <c r="O24">
+        <v>0.003621314448278364</v>
+      </c>
+      <c r="P24">
+        <v>0.003624299818427155</v>
+      </c>
+      <c r="Q24">
+        <v>42.05986780652533</v>
+      </c>
+      <c r="R24">
+        <v>378.5388102587279</v>
+      </c>
+      <c r="S24">
+        <v>0.0006114014675067119</v>
+      </c>
+      <c r="T24">
+        <v>0.0006133970725315466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H25">
+        <v>77.988344</v>
+      </c>
+      <c r="I25">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J25">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.170573</v>
+      </c>
+      <c r="N25">
+        <v>0.341146</v>
+      </c>
+      <c r="O25">
+        <v>0.0003817834215136668</v>
+      </c>
+      <c r="P25">
+        <v>0.0002547321062620075</v>
+      </c>
+      <c r="Q25">
+        <v>4.434235267037334</v>
+      </c>
+      <c r="R25">
+        <v>26.605411602224</v>
+      </c>
+      <c r="S25">
+        <v>6.445807110016716E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.311230750460353E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.181792</v>
+      </c>
+      <c r="H26">
+        <v>3.545376</v>
+      </c>
+      <c r="I26">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J26">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.9334765</v>
+      </c>
+      <c r="N26">
+        <v>1.866953</v>
+      </c>
+      <c r="O26">
+        <v>0.002089345043310503</v>
+      </c>
+      <c r="P26">
+        <v>0.001394044983620425</v>
+      </c>
+      <c r="Q26">
+        <v>1.103175059888</v>
+      </c>
+      <c r="R26">
+        <v>6.619050359328001</v>
+      </c>
+      <c r="S26">
+        <v>1.603625702379612E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.072573274739156E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.181792</v>
+      </c>
+      <c r="H27">
+        <v>3.545376</v>
+      </c>
+      <c r="I27">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J27">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.1084443333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.325333</v>
+      </c>
+      <c r="O27">
+        <v>0.0002427245145701171</v>
+      </c>
+      <c r="P27">
+        <v>0.0002429246138795051</v>
+      </c>
+      <c r="Q27">
+        <v>0.1281586455786667</v>
+      </c>
+      <c r="R27">
+        <v>1.153427810208</v>
+      </c>
+      <c r="S27">
+        <v>1.862972664129792E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.869053378369534E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.181792</v>
+      </c>
+      <c r="H28">
+        <v>3.545376</v>
+      </c>
+      <c r="I28">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J28">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>230.9694466666667</v>
+      </c>
+      <c r="N28">
+        <v>692.9083400000001</v>
+      </c>
+      <c r="O28">
+        <v>0.5169652032473979</v>
+      </c>
+      <c r="P28">
+        <v>0.5173913834390882</v>
+      </c>
+      <c r="Q28">
+        <v>272.9578443150934</v>
+      </c>
+      <c r="R28">
+        <v>2456.62059883584</v>
+      </c>
+      <c r="S28">
+        <v>0.003967840016744542</v>
+      </c>
+      <c r="T28">
+        <v>0.003980790985782032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.181792</v>
+      </c>
+      <c r="H29">
+        <v>3.545376</v>
+      </c>
+      <c r="I29">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J29">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>212.9796143333333</v>
+      </c>
+      <c r="N29">
+        <v>638.938843</v>
+      </c>
+      <c r="O29">
+        <v>0.4766996293249295</v>
+      </c>
+      <c r="P29">
+        <v>0.4770926150387227</v>
+      </c>
+      <c r="Q29">
+        <v>251.6976043822187</v>
+      </c>
+      <c r="R29">
+        <v>2265.278439439968</v>
+      </c>
+      <c r="S29">
+        <v>0.003658791449252664</v>
+      </c>
+      <c r="T29">
+        <v>0.003670733688499695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.181792</v>
+      </c>
+      <c r="H30">
+        <v>3.545376</v>
+      </c>
+      <c r="I30">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J30">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>1.617929</v>
+      </c>
+      <c r="N30">
+        <v>4.853787</v>
+      </c>
+      <c r="O30">
+        <v>0.003621314448278364</v>
+      </c>
+      <c r="P30">
+        <v>0.003624299818427155</v>
+      </c>
+      <c r="Q30">
+        <v>1.912055548768</v>
+      </c>
+      <c r="R30">
+        <v>17.208499938912</v>
+      </c>
+      <c r="S30">
+        <v>2.779451361684351E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.788523448354801E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.181792</v>
+      </c>
+      <c r="H31">
+        <v>3.545376</v>
+      </c>
+      <c r="I31">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J31">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.170573</v>
+      </c>
+      <c r="N31">
+        <v>0.341146</v>
+      </c>
+      <c r="O31">
+        <v>0.0003817834215136668</v>
+      </c>
+      <c r="P31">
+        <v>0.0002547321062620075</v>
+      </c>
+      <c r="Q31">
+        <v>0.201581806816</v>
+      </c>
+      <c r="R31">
+        <v>1.209490840896</v>
+      </c>
+      <c r="S31">
+        <v>2.930285303722134E-06</v>
+      </c>
+      <c r="T31">
+        <v>1.95989980671267E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.444929</v>
+      </c>
+      <c r="H32">
+        <v>0.889858</v>
+      </c>
+      <c r="I32">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J32">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.9334765</v>
+      </c>
+      <c r="N32">
+        <v>1.866953</v>
+      </c>
+      <c r="O32">
+        <v>0.002089345043310503</v>
+      </c>
+      <c r="P32">
+        <v>0.001394044983620425</v>
+      </c>
+      <c r="Q32">
+        <v>0.4153307656685</v>
+      </c>
+      <c r="R32">
+        <v>1.661323062674</v>
+      </c>
+      <c r="S32">
+        <v>6.037437892066102E-06</v>
+      </c>
+      <c r="T32">
+        <v>2.692063998607864E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.444929</v>
+      </c>
+      <c r="H33">
+        <v>0.889858</v>
+      </c>
+      <c r="I33">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J33">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.1084443333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.325333</v>
+      </c>
+      <c r="O33">
+        <v>0.0002427245145701171</v>
+      </c>
+      <c r="P33">
+        <v>0.0002429246138795051</v>
+      </c>
+      <c r="Q33">
+        <v>0.04825002878566666</v>
+      </c>
+      <c r="R33">
+        <v>0.289500172714</v>
+      </c>
+      <c r="S33">
+        <v>7.013844775380136E-07</v>
+      </c>
+      <c r="T33">
+        <v>4.69115857152854E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.444929</v>
+      </c>
+      <c r="H34">
+        <v>0.889858</v>
+      </c>
+      <c r="I34">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J34">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>230.9694466666667</v>
+      </c>
+      <c r="N34">
+        <v>692.9083400000001</v>
+      </c>
+      <c r="O34">
+        <v>0.5169652032473979</v>
+      </c>
+      <c r="P34">
+        <v>0.5173913834390882</v>
+      </c>
+      <c r="Q34">
+        <v>102.7650049359534</v>
+      </c>
+      <c r="R34">
+        <v>616.5900296157201</v>
+      </c>
+      <c r="S34">
+        <v>0.001493839094197737</v>
+      </c>
+      <c r="T34">
+        <v>0.0009991433080796023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.444929</v>
+      </c>
+      <c r="H35">
+        <v>0.889858</v>
+      </c>
+      <c r="I35">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J35">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>212.9796143333333</v>
+      </c>
+      <c r="N35">
+        <v>638.938843</v>
+      </c>
+      <c r="O35">
+        <v>0.4766996293249295</v>
+      </c>
+      <c r="P35">
+        <v>0.4770926150387227</v>
+      </c>
+      <c r="Q35">
+        <v>94.76080682571568</v>
+      </c>
+      <c r="R35">
+        <v>568.564840954294</v>
+      </c>
+      <c r="S35">
+        <v>0.001377486411081255</v>
+      </c>
+      <c r="T35">
+        <v>0.0009213216704183032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.444929</v>
+      </c>
+      <c r="H36">
+        <v>0.889858</v>
+      </c>
+      <c r="I36">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J36">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>1.617929</v>
+      </c>
+      <c r="N36">
+        <v>4.853787</v>
+      </c>
+      <c r="O36">
+        <v>0.003621314448278364</v>
+      </c>
+      <c r="P36">
+        <v>0.003624299818427155</v>
+      </c>
+      <c r="Q36">
+        <v>0.719863532041</v>
+      </c>
+      <c r="R36">
+        <v>4.319181192246</v>
+      </c>
+      <c r="S36">
+        <v>1.046426541136559E-05</v>
+      </c>
+      <c r="T36">
+        <v>6.998947075588335E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.444929</v>
+      </c>
+      <c r="H37">
+        <v>0.889858</v>
+      </c>
+      <c r="I37">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J37">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.170573</v>
+      </c>
+      <c r="N37">
+        <v>0.341146</v>
+      </c>
+      <c r="O37">
+        <v>0.0003817834215136668</v>
+      </c>
+      <c r="P37">
+        <v>0.0002547321062620075</v>
+      </c>
+      <c r="Q37">
+        <v>0.07589287431700001</v>
+      </c>
+      <c r="R37">
+        <v>0.303571497268</v>
+      </c>
+      <c r="S37">
+        <v>1.103213518030064E-06</v>
+      </c>
+      <c r="T37">
+        <v>4.919175066908908E-07</v>
       </c>
     </row>
   </sheetData>
